--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f174a984aa7f80b/Documents/citsec_ignite/ignite_trading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_53BA443A1C43C9C642678C0F5577EA1B4CF1ABD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D022ECBC-2D6A-4FB5-8375-89FC895CCA3A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_53BA443A1C43C9C642678C0F5577EA1B4CF1ABD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75342EB-4023-4BC8-8899-FB2072DFC7CC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,6 +96,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -299,10 +303,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -404,7 +408,22 @@
         <v>268</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>232</v>
+      </c>
+      <c r="D9" s="1">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f174a984aa7f80b/Documents/citsec_ignite/ignite_trading/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_53BA443A1C43C9C642678C0F5577EA1B4CF1ABD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D022ECBC-2D6A-4FB5-8375-89FC895CCA3A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,19 +37,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +74,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -78,35 +93,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -133,22 +165,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -160,131 +252,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -295,19 +414,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -327,82 +452,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2">
         <v>93</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>80</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>209</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2">
         <v>69</v>
       </c>
-      <c r="C3" s="1">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>51</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>342</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2">
         <v>82</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2">
         <v>97</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>71</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>318</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>382</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2">
         <v>82</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>71</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>229</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>268</v>
       </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>224</v>
+      </c>
+      <c r="D9" s="2">
+        <v>288</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>232</v>
+      </c>
+      <c r="D11" s="4">
+        <v>291</v>
+      </c>
+      <c r="E11" s="5">
+        <v>442</v>
+      </c>
+      <c r="F11" s="5">
+        <v>569</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -55,13 +55,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,16 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -418,18 +415,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -587,22 +584,70 @@
       <c r="D11" s="4">
         <v>291</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>442</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>569</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>69</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4">
+        <v>224</v>
+      </c>
+      <c r="D13" s="4">
+        <v>227</v>
+      </c>
+      <c r="E13" s="3">
+        <v>402</v>
+      </c>
+      <c r="F13" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3">
+        <v>263</v>
+      </c>
+      <c r="D14" s="3">
+        <v>292</v>
+      </c>
+      <c r="E14" s="3">
+        <v>428</v>
+      </c>
+      <c r="F14" s="3">
+        <v>541</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,74 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Oranges</t>
-  </si>
-  <si>
-    <t>5 Random Apple</t>
-  </si>
-  <si>
-    <t>5 Random Orange</t>
-  </si>
-  <si>
-    <t>Total Apple</t>
-  </si>
-  <si>
-    <t>Total Orange</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,39 +68,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,243 +453,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>5 Random Apple</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>5 Random Orange</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Apple</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2">
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>342</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2">
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>318</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2">
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4">
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4">
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3" t="n">
         <v>232</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3" t="n">
         <v>291</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3" t="n">
         <v>442</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3" t="n">
         <v>569</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4">
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3" t="n">
         <v>227</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="n">
         <v>402</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="n">
         <v>502</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="n">
         <v>263</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="n">
         <v>292</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="n">
         <v>428</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="n">
         <v>541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>349</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>307</v>
+      </c>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>49</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>212</v>
+      </c>
+      <c r="D16" t="n">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
